--- a/xlsx/發明_intext.xlsx
+++ b/xlsx/發明_intext.xlsx
@@ -29,7 +29,7 @@
     <t>思維</t>
   </si>
   <si>
-    <t>政策_政策_美國_發明</t>
+    <t>体育运动_体育运动_技术_發明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E8%90%BD%E5%82%98</t>
